--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2022/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_805C546DC3574AFC12484817D2058F70389BD707" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82E0F1EA-0C42-4BB8-814E-62E0DD285B3F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6CDBE28-EF49-4001-B66A-5E029B58C3A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
   <si>
     <t>Typ</t>
   </si>
@@ -43,53 +43,516 @@
     <t>Iframe</t>
   </si>
   <si>
+    <t>Kantonale Vorlage</t>
+  </si>
+  <si>
+    <t>Uebersicht Kanton</t>
+  </si>
+  <si>
+    <t>BE_Elternzeit</t>
+  </si>
+  <si>
+    <t>BE_Schuldenbremse</t>
+  </si>
+  <si>
+    <t>AG_Klimaschutz</t>
+  </si>
+  <si>
+    <t>AG_Taktfahrplan</t>
+  </si>
+  <si>
+    <t>SO_Zwilingsinitiative1</t>
+  </si>
+  <si>
+    <t>SO_Zwilingsinitiative2</t>
+  </si>
+  <si>
+    <t>TI_Oeffnungszeiten</t>
+  </si>
+  <si>
+    <t>JU_Autorites</t>
+  </si>
+  <si>
+    <t>FR_MHNF</t>
+  </si>
+  <si>
+    <t>VD_Climat</t>
+  </si>
+  <si>
+    <t>GE_Conge_Parental</t>
+  </si>
+  <si>
+    <t>GE_Solidarite</t>
+  </si>
+  <si>
+    <t>GE_Protect_Numerique</t>
+  </si>
+  <si>
+    <t>GE_Alimentation</t>
+  </si>
+  <si>
+    <t>GE_LEFI</t>
+  </si>
+  <si>
+    <t>GE_Emplois</t>
+  </si>
+  <si>
+    <t>ZH</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>Volksinitiative "Für eine kantonale Elternzeit"</t>
+  </si>
+  <si>
+    <t>Änderung der Kantonsverfassung (Anpassungen bei den Schuldenbremsen)</t>
+  </si>
+  <si>
+    <t>Aargauische Volksinitiative "Klimaschutz braucht Initiative! (Aargauische Klimaschutzinitiative)"</t>
+  </si>
+  <si>
+    <t>Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg; Verpflichtungskredit</t>
+  </si>
+  <si>
+    <t>Gesetzesinitiative «Zwillingsinitiative 1 – Hände weg vom Katasterwert!»</t>
+  </si>
+  <si>
+    <t>Gesetzesinitiative «Zwillingsinitiative 2 – Hände weg von den Abzügen!»</t>
+  </si>
+  <si>
+    <t>Modifica della legge sull’apertura dei negozi</t>
+  </si>
+  <si>
+    <t>Modification du 22 juin 2022 de la Constitution de la République et Canton du Jura du 20 mars 1977 (destitution de membres d'autorités)</t>
+  </si>
+  <si>
+    <t>Nouveau Musée d'histoire naturelle</t>
+  </si>
+  <si>
+    <t>Initiative populaire « Pour la protection du climat</t>
+  </si>
+  <si>
+    <t>IN 184 « Pour un congé parental maintenant ! »</t>
+  </si>
+  <si>
+    <t>IN185 «Pour une contribution temporaire de solidarité sur les grandes fortunes »</t>
+  </si>
+  <si>
+    <t>Loi constitutionnelle protection dans l'espace numérique</t>
+  </si>
+  <si>
+    <t>Loi constitutionnelle Droit à l'alimentation</t>
+  </si>
+  <si>
+    <t>Loi estimations fiscales de certains immeubles (LEFI)</t>
+  </si>
+  <si>
+    <t>IN 181 initiative 1000 emplois</t>
+  </si>
+  <si>
+    <t>ZH: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>BE: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>BE: Votations cantonales du 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>LU: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>FR: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>FR: Votations cantonales du 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>SO: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>SH: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>SG: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>AG: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>TG: Kantonale Abstimmungen vom 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>TI: Voti cantonali da 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>VD: Votations cantonales du 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>GE: Votations cantonales du 18. Juni 2023</t>
+  </si>
+  <si>
+    <t>JU: Votations cantonales du 18. Juni 2023</t>
+  </si>
+  <si>
     <t>de-DE</t>
   </si>
   <si>
+    <t>it-CH</t>
+  </si>
+  <si>
     <t>fr-CH</t>
   </si>
   <si>
-    <t>VS_Familienzulagen</t>
-  </si>
-  <si>
-    <t>VS_Suizid</t>
-  </si>
-  <si>
-    <t>SZ_Regierungsratslöhne</t>
-  </si>
-  <si>
-    <t>ZH_Krankenkassen</t>
-  </si>
-  <si>
-    <t>BS_Klimagerechtigkeit</t>
-  </si>
-  <si>
-    <t>dJlX4</t>
-  </si>
-  <si>
-    <t>A9GYT</t>
-  </si>
-  <si>
-    <t>0k1tB</t>
-  </si>
-  <si>
-    <t>TCCeP</t>
-  </si>
-  <si>
-    <t>NjBQ6</t>
-  </si>
-  <si>
-    <t>flFYr</t>
-  </si>
-  <si>
-    <t>QWKuD</t>
+    <t>ROihT</t>
+  </si>
+  <si>
+    <t>DiygI</t>
+  </si>
+  <si>
+    <t>BAzgk</t>
+  </si>
+  <si>
+    <t>KOe13</t>
+  </si>
+  <si>
+    <t>Ubin7</t>
+  </si>
+  <si>
+    <t>jTWc4</t>
+  </si>
+  <si>
+    <t>8SQfv</t>
+  </si>
+  <si>
+    <t>n1HnA</t>
+  </si>
+  <si>
+    <t>mCWha</t>
+  </si>
+  <si>
+    <t>0UjWD</t>
+  </si>
+  <si>
+    <t>p357g</t>
+  </si>
+  <si>
+    <t>4J261</t>
+  </si>
+  <si>
+    <t>79Pqi</t>
+  </si>
+  <si>
+    <t>gk6Gc</t>
+  </si>
+  <si>
+    <t>SuLlO</t>
+  </si>
+  <si>
+    <t>iMtJO</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/ROihT/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/DiygI/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/BAzgk/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/KOe13/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Ubin7/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/jTWc4/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/8SQfv/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/n1HnA/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/mCWha/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/0UjWD/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/p357g/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/4J261/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/79Pqi/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/gk6Gc/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/SuLlO/1/</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/iMtJO/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Volksinitiative &amp;quot;Für eine kantonale Elternzeit&amp;quot;" aria-label="Karte" id="datawrapper-chart-ROihT" src="https://datawrapper.dwcdn.net/ROihT/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Änderung der Kantonsverfassung (Anpassungen bei den Schuldenbremsen)" aria-label="Karte" id="datawrapper-chart-DiygI" src="https://datawrapper.dwcdn.net/DiygI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Aargauische Volksinitiative &amp;quot;Klimaschutz braucht Initiative! (Aargauische Klimaschutzinitiative)&amp;quot;" aria-label="Karte" id="datawrapper-chart-BAzgk" src="https://datawrapper.dwcdn.net/BAzgk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Verdichtung des Bahnangebots der Regio-S-Bahn Stein-Säckingen–Laufenburg; Verpflichtungskredit" aria-label="Karte" id="datawrapper-chart-KOe13" src="https://datawrapper.dwcdn.net/KOe13/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Gesetzesinitiative «Zwillingsinitiative 1 – Hände weg vom Katasterwert!»" aria-label="Karte" id="datawrapper-chart-Ubin7" src="https://datawrapper.dwcdn.net/Ubin7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Gesetzesinitiative «Zwillingsinitiative 2 – Hände weg von den Abzügen!»" aria-label="Karte" id="datawrapper-chart-jTWc4" src="https://datawrapper.dwcdn.net/jTWc4/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modifica della legge sull’apertura dei negozi" aria-label="Mappa" id="datawrapper-chart-8SQfv" src="https://datawrapper.dwcdn.net/8SQfv/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Modification du 22 juin 2022 de la Constitution de la République et Canton du Jura du 20 mars 1977 (destitution de membres d'autorités)" aria-label="Map" id="datawrapper-chart-n1HnA" src="https://datawrapper.dwcdn.net/n1HnA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Nouveau Musée d'histoire naturelle" aria-label="Map" id="datawrapper-chart-mCWha" src="https://datawrapper.dwcdn.net/mCWha/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative populaire « Pour la protection du climat" aria-label="Map" id="datawrapper-chart-0UjWD" src="https://datawrapper.dwcdn.net/0UjWD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="IN 184 « Pour un congé parental maintenant ! »" aria-label="Map" id="datawrapper-chart-p357g" src="https://datawrapper.dwcdn.net/p357g/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="IN185 «Pour une contribution temporaire de solidarité sur les grandes fortunes »" aria-label="Map" id="datawrapper-chart-4J261" src="https://datawrapper.dwcdn.net/4J261/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi constitutionnelle protection dans l'espace numérique" aria-label="Map" id="datawrapper-chart-79Pqi" src="https://datawrapper.dwcdn.net/79Pqi/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi constitutionnelle Droit à l'alimentation" aria-label="Map" id="datawrapper-chart-gk6Gc" src="https://datawrapper.dwcdn.net/gk6Gc/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Loi estimations fiscales de certains immeubles (LEFI)" aria-label="Map" id="datawrapper-chart-SuLlO" src="https://datawrapper.dwcdn.net/SuLlO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="IN 181 initiative 1000 emplois" aria-label="Map" id="datawrapper-chart-iMtJO" src="https://datawrapper.dwcdn.net/iMtJO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="507" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>wYe6z</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/wYe6z/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="ZH: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-wYe6z" src="https://datawrapper.dwcdn.net/wYe6z/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>mt3rj</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/mt3rj/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-mt3rj" src="https://datawrapper.dwcdn.net/mt3rj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>VNv2P</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/VNv2P/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-VNv2P" src="https://datawrapper.dwcdn.net/VNv2P/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>SZF7a</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/SZF7a/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-SZF7a" src="https://datawrapper.dwcdn.net/SZF7a/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>i2fHX</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/i2fHX/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-i2fHX" src="https://datawrapper.dwcdn.net/i2fHX/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>td37S</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/td37S/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-td37S" src="https://datawrapper.dwcdn.net/td37S/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>1KjvV</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/1KjvV/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SO: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-1KjvV" src="https://datawrapper.dwcdn.net/1KjvV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>99LEs</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/99LEs/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SH: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-99LEs" src="https://datawrapper.dwcdn.net/99LEs/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>HdC9q</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/HdC9q/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SG: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-HdC9q" src="https://datawrapper.dwcdn.net/HdC9q/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Hvyco</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/Hvyco/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AG: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-Hvyco" src="https://datawrapper.dwcdn.net/Hvyco/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>jNgxB</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/jNgxB/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TG: Kantonale Abstimmungen vom 18. Juni 2023" aria-label="Balken (gestapelt)" id="datawrapper-chart-jNgxB" src="https://datawrapper.dwcdn.net/jNgxB/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>MMIdG</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/MMIdG/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TI: Voti cantonali da 18. Juni 2023" aria-label="Barre impilate" id="datawrapper-chart-MMIdG" src="https://datawrapper.dwcdn.net/MMIdG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>HwdLI</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/HwdLI/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VD: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-HwdLI" src="https://datawrapper.dwcdn.net/HwdLI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>KgH3U</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/KgH3U/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-KgH3U" src="https://datawrapper.dwcdn.net/KgH3U/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>T53KG</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/T53KG/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="JU: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-T53KG" src="https://datawrapper.dwcdn.net/T53KG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -97,42 +560,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,20 +581,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -475,125 +897,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="133" style="4" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6CDBE28-EF49-4001-B66A-5E029B58C3A4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E7740B-1CF0-4C4E-8050-D51075B17BDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="172">
   <si>
     <t>Typ</t>
   </si>
@@ -546,16 +546,45 @@
   <si>
     <t>&lt;iframe title="JU: Votations cantonales du 18. Juni 2023" aria-label="Barres empilées" id="datawrapper-chart-T53KG" src="https://datawrapper.dwcdn.net/T53KG/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
 &lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Initiative populaire « Pour un congé parental cantonal »</t>
+  </si>
+  <si>
+    <t>aEWOR</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/aEWOR/1/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative populaire « Pour un congé parental cantonal »" aria-label="Map" id="datawrapper-chart-aEWOR" src="https://datawrapper.dwcdn.net/aEWOR/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="686" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Modification de la Constitution cantonale (ajustements des freins à l’endettement)</t>
+  </si>
+  <si>
+    <t>rKxat</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/rKxat/1/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,13 +607,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,6 +630,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,15 +933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -947,7 +986,7 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G2" t="s">
@@ -959,22 +998,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
+        <v>166</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -982,22 +1021,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1005,22 +1044,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>107</v>
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,22 +1067,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1051,22 +1090,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,22 +1113,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,22 +1136,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1120,22 +1159,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1143,22 +1182,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1166,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1189,22 +1228,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1212,22 +1251,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1235,22 +1274,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1258,22 +1297,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1281,68 +1320,68 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1350,22 +1389,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,22 +1412,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,22 +1435,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1419,22 +1458,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1442,22 +1481,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1465,22 +1504,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1488,22 +1527,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1511,22 +1550,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1534,22 +1573,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,22 +1596,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,22 +1619,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1603,22 +1642,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1626,25 +1665,79 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>71</v>
       </c>
       <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
         <v>162</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>163</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{9E87C4EB-2B83-44A2-B5BB-CED1128E40FD}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{25CBFAE7-110B-4EE8-8EBF-02975CC5398C}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{8C9FA754-E383-4A8C-A659-D2518F88BAE9}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{CA63200E-27A3-4818-B1DE-F93D8D79A9D8}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{B5558DF4-2206-43CA-884E-2966940205F8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E7740B-1CF0-4C4E-8050-D51075B17BDE}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45CB71D-C9E3-409C-9A27-EA62E5D74A5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,12 +61,6 @@
     <t>AG_Taktfahrplan</t>
   </si>
   <si>
-    <t>SO_Zwilingsinitiative1</t>
-  </si>
-  <si>
-    <t>SO_Zwilingsinitiative2</t>
-  </si>
-  <si>
     <t>TI_Oeffnungszeiten</t>
   </si>
   <si>
@@ -567,6 +561,12 @@
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/rKxat/1/</t>
+  </si>
+  <si>
+    <t>SO_Zwillingsinitiative 1</t>
+  </si>
+  <si>
+    <t>SO_Zwillingsinitiative 2</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,19 +978,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1001,19 +1001,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>166</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1024,19 +1024,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1047,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1070,19 +1070,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1093,19 +1093,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1113,22 +1113,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1136,22 +1136,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,22 +1159,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,22 +1182,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,22 +1205,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1228,22 +1228,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,22 +1251,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1274,22 +1274,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1297,22 +1297,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1343,22 +1343,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1366,22 +1366,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1389,22 +1389,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1412,22 +1412,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
-      </c>
-      <c r="F21" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,22 +1435,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1458,22 +1458,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1481,22 +1481,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1504,22 +1504,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1527,22 +1527,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1550,22 +1550,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" t="s">
         <v>141</v>
-      </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1573,22 +1573,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
         <v>144</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1596,22 +1596,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,22 +1619,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1642,22 +1642,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
         <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1665,22 +1665,22 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1688,22 +1688,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" t="s">
         <v>159</v>
-      </c>
-      <c r="F33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G33" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1711,22 +1711,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
         <v>162</v>
-      </c>
-      <c r="F34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/20230618_LENA_Abstimmungen/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20230618_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_8B88D469C3574AFC12484866E20071F63BBF0816" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45CB71D-C9E3-409C-9A27-EA62E5D74A5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC0F25-E0F4-4897-9CC7-E3F2C20F1CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -589,13 +589,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -611,9 +625,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -936,41 +951,44 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1172,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1241,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1264,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1379,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1402,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1586,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1609,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1632,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1706,7 +1724,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1738,6 +1756,6 @@
     <hyperlink ref="G5" r:id="rId5" xr:uid="{B5558DF4-2206-43CA-884E-2966940205F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Data/metadaten_grafiken_kantonal.xlsx
+++ b/Data/metadaten_grafiken_kantonal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\LENA_Project\20230618_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC0F25-E0F4-4897-9CC7-E3F2C20F1CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CBF303-A997-4032-AE2E-7DCBE46592FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,18 +184,12 @@
     <t>BE: Kantonale Abstimmungen vom 18. Juni 2023</t>
   </si>
   <si>
-    <t>BE: Votations cantonales du 18. Juni 2023</t>
-  </si>
-  <si>
     <t>LU: Kantonale Abstimmungen vom 18. Juni 2023</t>
   </si>
   <si>
     <t>FR: Kantonale Abstimmungen vom 18. Juni 2023</t>
   </si>
   <si>
-    <t>FR: Votations cantonales du 18. Juni 2023</t>
-  </si>
-  <si>
     <t>SO: Kantonale Abstimmungen vom 18. Juni 2023</t>
   </si>
   <si>
@@ -211,18 +205,6 @@
     <t>TG: Kantonale Abstimmungen vom 18. Juni 2023</t>
   </si>
   <si>
-    <t>TI: Voti cantonali da 18. Juni 2023</t>
-  </si>
-  <si>
-    <t>VD: Votations cantonales du 18. Juni 2023</t>
-  </si>
-  <si>
-    <t>GE: Votations cantonales du 18. Juni 2023</t>
-  </si>
-  <si>
-    <t>JU: Votations cantonales du 18. Juni 2023</t>
-  </si>
-  <si>
     <t>de-DE</t>
   </si>
   <si>
@@ -567,6 +549,24 @@
   </si>
   <si>
     <t>SO_Zwillingsinitiative 2</t>
+  </si>
+  <si>
+    <t>FR: Votations cantonales du 18 juin 2023</t>
+  </si>
+  <si>
+    <t>VD: Votations cantonales du 18 juin 2023</t>
+  </si>
+  <si>
+    <t>GE: Votations cantonales du 18 juin 2023</t>
+  </si>
+  <si>
+    <t>JU: Votations cantonales du 18 juin 2023</t>
+  </si>
+  <si>
+    <t>TI: Voti cantonali del 18 giugno 2023</t>
+  </si>
+  <si>
+    <t>BE: Votations cantonales du 18 juin 2023</t>
   </si>
 </sst>
 </file>
@@ -951,7 +951,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,16 +999,16 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,16 +1045,16 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,19 +1065,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,16 +1091,16 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,16 +1114,16 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,22 +1131,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,22 +1154,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,16 +1183,16 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,16 +1206,16 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,16 +1229,16 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,16 +1252,16 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,16 +1275,16 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,16 +1298,16 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,16 +1321,16 @@
         <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,16 +1344,16 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,16 +1367,16 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1390,16 +1390,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,16 +1413,16 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,16 +1436,16 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,19 +1456,19 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,19 +1479,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,19 +1502,19 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,19 +1525,19 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,19 +1548,19 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,19 +1571,19 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,19 +1617,19 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1640,19 +1640,19 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1663,19 +1663,19 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,19 +1686,19 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1709,19 +1709,19 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,19 +1732,19 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
